--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y461"/>
+  <dimension ref="A1:Y463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
       </c>
       <c r="R460" s="2" t="inlineStr"/>
     </row>
-    <row r="461">
+    <row r="461" ht="15" customHeight="1">
       <c r="A461" t="inlineStr">
         <is>
           <t>A 40696-2023</t>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27321,6 +27321,125 @@
         <v>0</v>
       </c>
       <c r="R461" s="2" t="inlineStr"/>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>A 41460-2023</t>
+        </is>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C462" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>VÄRNAMO</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>4</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0</v>
+      </c>
+      <c r="O462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R462" s="2" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>A 41699-2023</t>
+        </is>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C463" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>VÄRNAMO</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="n">
+        <v>0</v>
+      </c>
+      <c r="O463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R463" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 1844-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 1844-2020.xlsx", "A 1844-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 1844-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 1844-2020.png", "A 1844-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 1844-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 1844-2020.docx", "A 1844-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 1844-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 1844-2020.docx", "A 1844-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 1844-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 1844-2020.docx", "A 1844-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 1844-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 1844-2020.docx", "A 1844-2020")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 23627-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 23627-2023.xlsx", "A 23627-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 23627-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 23627-2023.png", "A 23627-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 23627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 23627-2023.docx", "A 23627-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 23627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 23627-2023.docx", "A 23627-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 23627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 23627-2023.docx", "A 23627-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 23627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 23627-2023.docx", "A 23627-2023")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 41207-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 41207-2018.xlsx", "A 41207-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 41207-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 41207-2018.png", "A 41207-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 41207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 41207-2018.docx", "A 41207-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 41207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 41207-2018.docx", "A 41207-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 41207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 41207-2018.docx", "A 41207-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 41207-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 41207-2018.docx", "A 41207-2018")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 45525-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 45525-2022.xlsx", "A 45525-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 45525-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 45525-2022.png", "A 45525-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 45525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 45525-2022.docx", "A 45525-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 45525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 45525-2022.docx", "A 45525-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 45525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 45525-2022.docx", "A 45525-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 45525-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 45525-2022.docx", "A 45525-2022")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 14000-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 14000-2023.xlsx", "A 14000-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 14000-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 14000-2023.png", "A 14000-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 14000-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 14000-2023.docx", "A 14000-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 14000-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 14000-2023.docx", "A 14000-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 14000-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 14000-2023.docx", "A 14000-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 14000-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 14000-2023.docx", "A 14000-2023")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1055,27 +1055,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 7860-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 7860-2020.xlsx", "A 7860-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 7860-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 7860-2020.png", "A 7860-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 7860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 7860-2020.docx", "A 7860-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 7860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 7860-2020.docx", "A 7860-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 7860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 7860-2020.docx", "A 7860-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 7860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 7860-2020.docx", "A 7860-2020")</f>
         <v/>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,27 +1140,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 63418-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 63418-2021.xlsx", "A 63418-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 63418-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 63418-2021.png", "A 63418-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 63418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 63418-2021.docx", "A 63418-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 63418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 63418-2021.docx", "A 63418-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 63418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 63418-2021.docx", "A 63418-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 63418-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 63418-2021.docx", "A 63418-2021")</f>
         <v/>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1225,27 +1225,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 53585-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 53585-2022.xlsx", "A 53585-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 53585-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 53585-2022.png", "A 53585-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 53585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 53585-2022.docx", "A 53585-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 53585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 53585-2022.docx", "A 53585-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 53585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 53585-2022.docx", "A 53585-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 53585-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 53585-2022.docx", "A 53585-2022")</f>
         <v/>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1310,27 +1310,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 57181-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 57181-2022.xlsx", "A 57181-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 57181-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 57181-2022.png", "A 57181-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 57181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 57181-2022.docx", "A 57181-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 57181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 57181-2022.docx", "A 57181-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 57181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 57181-2022.docx", "A 57181-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 57181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 57181-2022.docx", "A 57181-2022")</f>
         <v/>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1395,27 +1395,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 9986-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 9986-2023.xlsx", "A 9986-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 9986-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 9986-2023.png", "A 9986-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 9986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 9986-2023.docx", "A 9986-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 9986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 9986-2023.docx", "A 9986-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 9986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 9986-2023.docx", "A 9986-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 9986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 9986-2023.docx", "A 9986-2023")</f>
         <v/>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1480,27 +1480,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 28289-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/artfynd/A 28289-2023.xlsx", "A 28289-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 28289-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/kartor/A 28289-2023.png", "A 28289-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 28289-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomål/A 28289-2023.docx", "A 28289-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 28289-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/klagomålsmail/A 28289-2023.docx", "A 28289-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 28289-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsyn/A 28289-2023.docx", "A 28289-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 28289-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARNAMO/tillsynsmail/A 28289-2023.docx", "A 28289-2023")</f>
         <v/>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y463"/>
+  <dimension ref="A1:Y464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
       </c>
       <c r="R462" s="2" t="inlineStr"/>
     </row>
-    <row r="463">
+    <row r="463" ht="15" customHeight="1">
       <c r="A463" t="inlineStr">
         <is>
           <t>A 41699-2023</t>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27440,6 +27440,63 @@
         <v>0</v>
       </c>
       <c r="R463" s="2" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>A 43858-2023</t>
+        </is>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C464" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>VÄRNAMO</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0</v>
+      </c>
+      <c r="O464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R464" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44841</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>45008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>44508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44879</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>44895</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44979</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45099</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43347</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43354</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43356</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43357</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43364</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43372</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43376</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>43382</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>43384</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43392</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43395</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43409</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43410</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43415</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43423</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43424</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43424</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43431</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43431</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43433</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43437</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43439</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43452</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43455</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43463</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43472</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43474</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43486</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43486</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43509</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43514</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43529</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43542</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43542</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43549</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43551</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43557</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43557</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43563</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43567</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43570</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>43584</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43601</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>43606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43616</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43619</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43627</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43630</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43633</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43639</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43641</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43689</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43696</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43697</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43698</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43706</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43724</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43740</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43742</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43744</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43769</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43773</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43784</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43796</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43803</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43838</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43839</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43844</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43847</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43866</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43871</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43873</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43878</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43881</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43886</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43888</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43895</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43896</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43903</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43914</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43916</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43928</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43941</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43950</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>43962</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43974</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43978</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43993</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43996</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43997</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44022</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>44029</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44031</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44048</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44049</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44054</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44067</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44068</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44071</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44080</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44081</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>44092</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44095</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44125</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44126</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44139</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44145</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>44151</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44153</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44165</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44168</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44171</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44172</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44176</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44178</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44181</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>44188</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44201</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44203</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44204</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44209</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44214</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44216</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44218</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44223</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44224</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44230</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44235</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44244</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44249</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44257</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44258</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44273</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44277</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44278</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44295</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44313</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44315</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44319</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44327</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44341</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44348</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44351</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44361</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44365</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44385</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44392</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44419</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44427</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44434</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44438</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44446</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44448</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44449</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44468</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44470</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44473</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44489</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44494</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44525</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44526</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44532</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44539</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44546</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y468"/>
+  <dimension ref="A1:Y469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44546</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44895</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44979</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43354</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43357</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43364</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43372</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43396</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43410</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43410</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43415</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43423</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43424</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43424</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43431</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43438</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43438</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43448</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43452</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43463</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43486</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43504</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43529</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43542</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43542</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43551</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43557</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43557</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43563</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43584</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43601</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43606</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43616</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43619</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43627</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43633</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43639</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43641</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43649</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43689</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43697</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43740</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43744</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43748</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43769</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43773</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43796</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43826</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43838</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43839</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43844</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43859</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43866</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43871</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43873</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43878</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43881</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43886</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43888</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43895</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43896</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43903</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43916</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43928</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43941</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43950</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43962</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43974</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43993</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43996</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43997</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44006</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44022</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44031</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44048</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44055</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44067</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44068</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44071</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44080</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44081</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44092</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44126</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44139</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44151</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44165</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44168</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44171</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44172</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44178</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44181</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44188</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44201</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44203</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44211</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44214</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44216</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44218</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44223</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44229</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44230</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44235</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44239</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44244</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44249</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44257</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44273</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44277</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44278</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44295</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44313</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44319</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44327</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44341</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44348</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44351</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44361</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44365</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44377</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44385</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44419</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44427</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44434</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44438</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44446</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44449</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44468</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44470</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44473</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44494</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44525</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44526</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44532</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44539</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45197</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45197</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45198</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
       </c>
       <c r="R467" s="2" t="inlineStr"/>
     </row>
-    <row r="468">
+    <row r="468" ht="15" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
           <t>A 46863-2023</t>
@@ -27741,7 +27741,7 @@
         <v>45200</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27792,6 +27792,63 @@
         <v>0</v>
       </c>
       <c r="R468" s="2" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>A 47216-2023</t>
+        </is>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C469" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>VÄRNAMO</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" t="n">
+        <v>0</v>
+      </c>
+      <c r="O469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R469" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44546</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44895</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44979</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43354</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43357</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43364</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43372</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43396</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43410</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43410</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43415</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43423</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43424</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43424</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43431</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43438</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43438</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43448</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43452</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43463</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43486</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43504</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43529</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43542</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43542</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43551</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43557</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43557</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43563</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43584</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43601</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43606</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43616</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43619</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43627</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43633</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43639</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43641</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43649</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43689</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43697</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43740</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43744</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43748</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43769</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43773</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43796</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43826</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43838</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43839</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43844</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43859</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43866</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43871</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43873</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43878</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43881</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43886</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43888</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43895</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43896</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43903</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43916</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43928</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43941</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43950</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43962</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43974</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43993</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43996</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43997</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44006</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44022</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44031</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44048</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44055</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44067</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44068</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44071</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44080</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44081</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44092</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44126</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44139</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44151</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44165</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44168</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44171</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44172</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44178</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44181</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44188</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44201</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44203</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44211</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44214</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44216</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44218</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44223</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44229</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44230</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44235</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44239</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44244</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44249</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44257</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44273</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44277</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44278</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44295</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44313</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44319</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44327</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44341</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44348</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44351</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44361</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44365</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44377</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44385</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44419</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44427</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44434</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44438</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44446</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44449</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44468</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44470</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44473</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44494</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44525</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44526</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44532</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44539</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45197</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45197</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45198</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45200</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45202</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44546</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44895</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44979</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43354</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43357</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43364</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43372</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43396</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43410</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43410</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43415</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43423</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43424</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43424</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43431</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43438</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43438</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43448</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43452</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43463</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43486</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43504</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43529</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43542</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43542</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43551</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43557</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43557</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43563</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43584</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43601</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43606</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43616</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43619</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43627</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43633</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43639</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43641</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43649</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43689</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43697</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43740</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43744</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43748</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43769</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43773</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43796</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43826</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43838</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43839</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43844</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43859</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43866</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43871</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43873</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43878</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43881</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43886</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43888</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43895</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43896</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43903</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43916</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43928</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43941</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43950</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43962</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43974</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43993</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43996</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43997</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44006</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44022</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44031</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44048</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44055</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44067</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44068</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44071</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44080</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44081</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44092</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44126</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44139</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44151</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44165</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44168</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44171</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44172</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44178</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44181</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44188</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44201</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44203</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44211</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44214</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44216</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44218</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44223</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44229</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44230</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44235</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44239</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44244</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44249</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44257</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44273</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44277</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44278</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44295</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44313</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44319</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44327</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44341</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44348</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44351</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44361</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44365</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44377</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44385</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44419</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44427</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44434</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44438</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44446</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44449</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44468</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44470</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44473</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44494</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44525</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44526</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44532</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44539</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45197</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45197</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45198</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45200</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45202</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44546</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44895</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44979</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43354</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43357</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43364</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43372</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43396</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43410</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43410</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43415</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43423</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43424</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43424</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43431</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43438</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43438</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43448</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43452</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43463</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43486</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43504</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43529</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43542</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43542</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43551</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43557</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43557</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43563</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43584</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43601</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43606</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43616</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43619</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43627</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43633</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43639</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43641</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43649</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43689</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43697</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43740</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43744</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43748</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43769</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43773</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43796</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43826</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43838</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43839</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43844</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43859</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43866</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43871</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43873</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43878</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43881</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43886</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43888</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43895</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43896</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43903</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43916</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43928</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43941</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43950</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43962</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43974</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43993</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43996</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43997</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44006</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44022</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44031</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44048</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44055</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44067</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44068</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44071</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44080</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44081</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44092</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44126</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44139</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44151</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44165</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44168</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44171</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44172</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44178</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44181</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44188</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44201</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44203</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44211</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44214</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44216</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44218</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44223</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44229</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44230</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44235</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44239</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44244</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44249</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44257</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44273</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44277</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44278</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44295</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44313</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44319</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44327</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44341</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44348</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44351</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44361</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44365</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44377</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44385</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44419</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44427</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44434</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44438</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44446</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44449</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44468</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44470</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44473</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44494</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44525</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44526</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44532</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44539</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45197</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45197</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45198</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45200</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45202</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>

--- a/Översikt VÄRNAMO.xlsx
+++ b/Översikt VÄRNAMO.xlsx
@@ -572,7 +572,7 @@
         <v>43844</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>45077</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>43346</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44546</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>44841</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44879</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44895</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44979</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>43325</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>43341</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>43346</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43346</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43347</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43354</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43357</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43362</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43364</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43368</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43368</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43372</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43381</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43392</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>43392</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>43395</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>43396</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43410</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43410</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43410</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43415</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43423</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43424</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43424</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43427</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43431</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43431</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43431</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43437</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43437</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43438</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43438</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43439</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43448</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43452</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43463</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43473</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43486</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43486</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43486</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43490</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>43504</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43509</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>43518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>43518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43529</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43542</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43542</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43542</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43551</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43557</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43557</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>43557</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>43563</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>43584</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>43584</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>43601</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>43601</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>43606</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>43608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>43616</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>43619</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43627</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43627</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43627</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43633</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43639</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43641</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43641</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43649</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43649</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43689</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43696</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43696</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43697</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43698</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43698</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>43721</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43740</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43742</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43744</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43744</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43748</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43755</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>43767</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43767</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>43767</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43769</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43773</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43783</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43783</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43783</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43784</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43796</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43803</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43826</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43838</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43839</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43844</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43859</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43866</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43871</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43873</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43878</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43881</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43881</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43886</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43888</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43888</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43888</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43888</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43888</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43895</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43895</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43895</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43896</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43903</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43914</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43916</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43916</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43928</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43941</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>43950</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43962</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>43963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43974</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>43978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>43993</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>43996</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43997</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43997</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43997</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>44006</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>44006</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44022</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>44022</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44022</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44029</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44031</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44040</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44048</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44048</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44049</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44054</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>44055</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>44067</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44068</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44071</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44078</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44080</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44081</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44092</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44092</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44092</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44125</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44126</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44139</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44139</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44145</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44147</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44147</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44147</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>44151</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>44153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44165</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44168</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>44169</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44171</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>44172</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>44178</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>44178</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44178</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44178</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44181</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>44188</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44201</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44203</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>44204</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>44204</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44204</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44209</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44211</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44214</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>44214</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>44214</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44216</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44216</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44218</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44218</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44218</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44218</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44223</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44224</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44229</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44230</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44235</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44239</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44244</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44249</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44257</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44258</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44273</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44277</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44278</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44278</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44295</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44295</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44313</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44315</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44315</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44319</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>44327</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44341</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44348</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44351</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44361</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44361</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44361</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44365</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44377</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44385</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44392</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44419</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44427</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44434</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44438</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44438</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44446</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44449</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44468</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44470</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44473</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44473</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44489</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44494</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44525</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44526</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44532</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44539</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44539</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44552</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44552</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44553</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44553</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44557</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44557</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44557</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44559</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44559</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44568</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44595</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44602</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
         <v>44602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44602</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44608</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44616</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44628</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44629</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44629</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44638</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21597,7 +21597,7 @@
         <v>44642</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         <v>44642</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>44644</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44648</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44649</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44652</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>44722</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44722</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44727</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>44727</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44729</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44770</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44820</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44823</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44825</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44840</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44840</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>44841</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44844</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44853</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44853</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44853</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44858</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44869</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44881</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44882</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44887</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44909</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44915</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44931</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44936</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44936</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44949</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44966</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>44970</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>44970</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>44981</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>44984</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44985</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>44985</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>44992</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44993</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44998</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44998</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44998</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45002</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45009</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45009</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45012</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45012</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45019</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45019</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45021</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45043</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45055</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45056</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45056</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45056</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25778,7 +25778,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45076</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45077</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45077</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45078</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45090</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45091</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45092</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45099</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45104</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45104</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45105</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45106</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45107</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45114</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45120</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45124</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45145</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45146</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45149</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45154</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45160</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45166</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45167</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45170</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45175</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45176</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45187</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45197</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45197</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45198</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45200</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45202</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
